--- a/20180126_SmartCut/Meeting/20190125 Meeting/20190123 time history.xlsx
+++ b/20180126_SmartCut/Meeting/20190125 Meeting/20190123 time history.xlsx
@@ -88,17 +88,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -135,7 +135,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -416,10 +416,10 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="9.140625" style="1"/>
@@ -428,7 +428,7 @@
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
@@ -460,7 +460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -483,7 +483,7 @@
         <v>0.1</v>
       </c>
       <c r="J2" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K2" s="1">
         <f>$B2*I2</f>
@@ -491,7 +491,7 @@
       </c>
       <c r="L2" s="1">
         <f>$B2*J2</f>
-        <v>1.7550000000000001</v>
+        <v>1.2870000000000001</v>
       </c>
       <c r="M2" s="1">
         <f>I2*$C2</f>
@@ -499,10 +499,10 @@
       </c>
       <c r="N2" s="1">
         <f>J2*$C2</f>
-        <v>2.5650000000000004</v>
+        <v>1.8810000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,29 +513,29 @@
         <v>0.68300000000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="J3" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K6" si="0">$B3*I3</f>
-        <v>2.2350000000000002E-2</v>
+        <v>4.47E-3</v>
       </c>
       <c r="L3" s="1">
         <f t="shared" ref="L3:L6" si="1">$B3*J3</f>
-        <v>1.788</v>
+        <v>1.341</v>
       </c>
       <c r="M3" s="1">
         <f t="shared" ref="M3:M6" si="2">I3*$C3</f>
-        <v>3.4150000000000007E-2</v>
+        <v>6.830000000000001E-3</v>
       </c>
       <c r="N3" s="1">
         <f t="shared" ref="N3:N6" si="3">J3*$C3</f>
-        <v>2.7320000000000002</v>
+        <v>2.0490000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -546,29 +546,29 @@
         <v>1.234</v>
       </c>
       <c r="I4" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="J4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="0"/>
-        <v>2.4900000000000002E-2</v>
+        <v>4.9800000000000001E-3</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="1"/>
-        <v>1.992</v>
+        <v>1.494</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="2"/>
-        <v>6.1700000000000005E-2</v>
+        <v>1.234E-2</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" si="3"/>
-        <v>4.9359999999999999</v>
+        <v>3.702</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -579,29 +579,29 @@
         <v>1.383</v>
       </c>
       <c r="I5" s="1">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="J5" s="1">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="0"/>
-        <v>2.5550000000000003E-2</v>
+        <v>5.11E-3</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="1"/>
-        <v>2.044</v>
+        <v>1.2775000000000001</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="2"/>
-        <v>6.9150000000000003E-2</v>
+        <v>1.383E-2</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="3"/>
-        <v>5.532</v>
+        <v>3.4575</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -612,26 +612,26 @@
         <v>0.41399999999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="J6" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="0"/>
-        <v>2.1400000000000002E-2</v>
+        <v>2.14E-3</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="1"/>
-        <v>1.9259999999999999</v>
+        <v>1.284</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="2"/>
-        <v>4.1399999999999999E-2</v>
+        <v>4.1399999999999996E-3</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="3"/>
-        <v>3.726</v>
+        <v>2.484</v>
       </c>
     </row>
   </sheetData>
